--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91964.02466280501</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>10987109.08525028</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30789066.36991068</v>
+        <v>27940789.92655993</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.258836905122502e-10</v>
+        <v>1592606.646152942</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8708,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8945,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9337,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9419,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9574,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9656,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9796,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9811,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10048,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10279,13 +10281,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10367,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10522,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10759,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10896,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10996,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11078,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11233,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>79.12633608862856</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11470,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22568,31 +22570,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22644,34 +22646,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22726,28 +22728,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22805,31 +22807,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22881,34 +22883,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22963,28 +22965,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>220.0898510449805</v>
@@ -23054,7 +23056,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -23063,10 +23065,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23279,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>220.0898510449805</v>
@@ -23300,10 +23302,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23516,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>220.0898510449805</v>
@@ -23537,10 +23539,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23592,10 +23594,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -23613,13 +23615,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23674,28 +23676,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23753,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
@@ -23777,7 +23779,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R17" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23829,16 +23831,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -23850,13 +23852,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23911,10 +23913,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
         <v>134.8846762812383</v>
@@ -23929,10 +23931,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23990,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>220.0898510449805</v>
@@ -24011,10 +24013,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24066,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -24090,10 +24092,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24148,10 +24150,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>134.8846762812383</v>
@@ -24166,10 +24168,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>220.0898510449805</v>
@@ -24248,10 +24250,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24303,10 +24305,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -24327,7 +24329,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -24388,7 +24390,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K25" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>134.8846762812383</v>
@@ -24403,10 +24405,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>220.0898510449805</v>
@@ -24488,7 +24490,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R26" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -24567,7 +24569,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24622,7 +24624,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>129.0132581705354</v>
@@ -24640,10 +24642,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>220.0898510449805</v>
@@ -24722,10 +24724,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24777,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -24786,7 +24788,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -24804,7 +24806,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24859,7 +24861,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
         <v>129.0132581705354</v>
@@ -24871,13 +24873,13 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>151.5050016294458</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>220.0898510449805</v>
@@ -24959,10 +24961,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -25014,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -25035,13 +25037,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25096,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>129.0132581705354</v>
@@ -25114,10 +25116,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>220.0898510449805</v>
@@ -25196,7 +25198,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>215.5855378141321</v>
@@ -25278,7 +25280,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25333,10 +25335,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>134.8846762812383</v>
@@ -25351,10 +25353,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25412,10 +25414,10 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>235.7664149699872</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -25515,7 +25517,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25588,10 +25590,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
@@ -25670,10 +25672,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25731,7 +25733,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -25749,10 +25751,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25807,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -25825,10 +25827,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25877,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>414.3588981658848</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>100.9387195582597</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>100.0299464227919</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>95.50771753390021</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.3056898744495</v>
+        <v>120.3816583481039</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>156.2970892917925</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,49 +25958,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>82.13536774255608</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>56.29524403393702</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J46" t="n">
-        <v>126.9954214393961</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K46" t="n">
-        <v>129.0132581705354</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P46" t="n">
-        <v>137.7280040491476</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.5050016294458</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>270773.0711952145</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>94242.17373970618</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>62284.93398070101</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>133086.1228539241</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>101341.2075944349</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>100467.2150116522</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>95676.78497609783</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>56021.8509890693</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>89140.49796107653</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>95538.23021813731</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>70818.98482547964</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>76113.34781577424</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>100587.7645228663</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.088665158022195e-11</v>
+        <v>246322.1262828481</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>27077.30711952147</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9424.217373970618</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6228.493398070105</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13308.61228539242</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>10134.12075944349</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>10046.72150116523</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9567.678497609788</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5602.185098906934</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8914.049796107662</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9553.823021813736</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7081.898482547968</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7611.33478157743</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>10058.77645228664</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>27142.54053012783</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>156263.9586557467</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>27077.30711952147</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>9424.217373970618</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6228.493398070106</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>13308.61228539242</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>10134.1207594435</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10046.72150116523</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9567.678497609788</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5602.185098906934</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>8914.049796107663</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9553.823021813738</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7081.898482547968</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7611.33478157743</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>10058.77645228664</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2039.261511697871</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>5118.204831146673</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.59999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-33627.6</v>
@@ -26528,13 +26530,13 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -26546,10 +26548,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -26558,10 +26560,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-136278.8844684634</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>234.7800381259942</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>234.7800381259942</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.9438393492502272</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.666094735508892</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.38736651196942</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>80.10718496842655</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>120.0599046221887</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>165.7299311340341</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>168.4116146850913</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.7252782213693</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>101.9240315263455</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.28844852233964</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>21.50773917103957</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.07550714794001816</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.5049985725728932</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.877223056164522</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>17.38701225744391</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>47.71129057803813</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>81.54619494042197</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>109.6489225228995</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>127.9551207786668</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>120.1520068700076</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>96.43257830122204</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>31.35420961992052</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>9.380126994939479</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.035498632431968</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.03322359030084825</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.764178316183975</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>12.73200600198015</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>29.93253043452224</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>49.18834241393778</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>62.94414333627064</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>64.78774396352233</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>59.84196775054031</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>51.20514142997091</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>19.03642735362569</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.808960949495364</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02309311850419617</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91964.02466280501</v>
+        <v>-218750.5042824881</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10987109.08525028</v>
+        <v>5413711.842050619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27940789.92655993</v>
+        <v>22726010.95505212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1592606.646152942</v>
+        <v>4350924.710954039</v>
       </c>
     </row>
     <row r="11">
@@ -8218,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
@@ -8233,7 +8233,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,7 +8303,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9166,25 +9166,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9251,13 +9251,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9327,16 +9327,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9564,16 +9564,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9640,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9719,28 +9719,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,22 +9795,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9877,25 +9877,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,19 +10035,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,25 +10272,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,19 +10509,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10588,28 +10588,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10749,16 +10749,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10828,25 +10828,25 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11135,28 +11135,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11223,16 +11223,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>79.12633608862856</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>79.82491575659759</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>86.52286261917671</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22810,13 +22810,13 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -22825,7 +22825,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>9.990699214544804</v>
@@ -22895,7 +22895,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -23047,22 +23047,22 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>9.990699214544804</v>
@@ -23120,34 +23120,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,28 +23202,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23284,22 +23284,22 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>9.990699214544804</v>
@@ -23357,34 +23357,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23439,28 +23439,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23521,22 +23521,22 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>9.990699214544804</v>
@@ -23600,19 +23600,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -23758,25 +23758,25 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23843,13 +23843,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -23919,16 +23919,16 @@
         <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>2.721440735106512</v>
@@ -23995,22 +23995,22 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>9.990699214544804</v>
@@ -24074,22 +24074,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -24156,16 +24156,16 @@
         <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>2.721440735106512</v>
@@ -24232,22 +24232,22 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>9.990699214544804</v>
@@ -24311,28 +24311,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24387,22 +24387,22 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>2.721440735106512</v>
@@ -24469,25 +24469,25 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24548,25 +24548,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -24627,19 +24627,19 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>2.721440735106512</v>
@@ -24706,22 +24706,22 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>9.990699214544804</v>
@@ -24782,28 +24782,28 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -24864,25 +24864,25 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24943,22 +24943,22 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>9.990699214544804</v>
@@ -25022,25 +25022,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -25101,19 +25101,19 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>2.721440735106512</v>
@@ -25180,28 +25180,28 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25253,31 +25253,31 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -25341,16 +25341,16 @@
         <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>2.721440735106512</v>
@@ -25420,25 +25420,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25496,25 +25496,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -25572,22 +25572,22 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>2.721440735106512</v>
@@ -25654,22 +25654,22 @@
         <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>9.990699214544804</v>
@@ -25727,28 +25727,28 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -25815,16 +25815,16 @@
         <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>2.721440735106512</v>
@@ -25879,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.3588981658848</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>329.8087073802583</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>174.0885230584365</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>100.9387195582597</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
-        <v>100.0299464227919</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>86.82148686318186</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>64.61630209323863</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>61.00144891149961</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>71.0718992657024</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>95.50771753390021</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.3816583481039</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>156.2970892917925</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>187.5123304152058</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9641928127885</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2701457598965</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,49 +25958,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.8385185906377</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>107.3582211803319</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>82.13536774255608</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>56.29524403393702</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>37.54182911310821</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.51914927829571</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>68.80362453272261</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>162.3030441088983</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>198.1292300623896</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.908158490674</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.5676055192152</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>158.4629941912556</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7184689252781</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>63.42664968215054</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
-        <v>71.94053294496764</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>72.56001021962938</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>62.89780050171086</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>78.61457070130248</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.71025749466926</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>158.2569640235438</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>216.6383466748816</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>226.1366284787861</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2959362379867</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>270773.0711952145</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>94242.17373970618</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62284.93398070101</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>133086.1228539241</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101341.2075944349</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100467.2150116522</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95676.78497609783</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>56021.8509890693</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89140.49796107653</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95538.23021813731</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>70818.98482547964</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>76113.34781577424</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>100587.7645228663</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>246322.1262828481</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>37627.59193600625</v>
       </c>
       <c r="C2" t="n">
-        <v>27077.30711952147</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="D2" t="n">
-        <v>9424.217373970618</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="E2" t="n">
-        <v>6228.493398070105</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="F2" t="n">
-        <v>13308.61228539242</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="G2" t="n">
-        <v>10134.12075944349</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="H2" t="n">
-        <v>10046.72150116523</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="I2" t="n">
-        <v>9567.678497609788</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="J2" t="n">
-        <v>5602.185098906934</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="K2" t="n">
-        <v>8914.049796107662</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="L2" t="n">
-        <v>9553.823021813736</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="M2" t="n">
-        <v>7081.898482547968</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="N2" t="n">
-        <v>7611.33478157743</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="O2" t="n">
-        <v>10058.77645228664</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="P2" t="n">
-        <v>27142.54053012783</v>
+        <v>37627.59193600624</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>156263.9586557467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>37627.59193600624</v>
       </c>
       <c r="C4" t="n">
-        <v>27077.30711952147</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="D4" t="n">
-        <v>9424.217373970618</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="E4" t="n">
-        <v>6228.493398070106</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="F4" t="n">
-        <v>13308.61228539242</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="G4" t="n">
-        <v>10134.1207594435</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="H4" t="n">
-        <v>10046.72150116523</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="I4" t="n">
-        <v>9567.678497609788</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="J4" t="n">
-        <v>5602.185098906934</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="K4" t="n">
-        <v>8914.049796107663</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="L4" t="n">
-        <v>9553.823021813738</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="M4" t="n">
-        <v>7081.898482547968</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="N4" t="n">
-        <v>7611.33478157743</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="O4" t="n">
-        <v>10058.77645228664</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="P4" t="n">
-        <v>2039.261511697871</v>
+        <v>37627.59193600624</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5118.204831146673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999999</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="E6" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="O6" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="P6" t="n">
-        <v>-136278.8844684634</v>
+        <v>-15150.67397003476</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>234.7800381259942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>234.7800381259942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9438393492502272</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.666094735508892</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>36.38736651196942</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>80.10718496842655</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>120.0599046221887</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>148.9449281068054</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>165.7299311340341</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>168.4116146850913</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>159.0263121559843</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.7252782213693</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.9240315263455</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>59.28844852233964</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>21.50773917103957</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>4.131656751342871</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07550714794001816</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5049985725728932</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>4.877223056164522</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38701225744391</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>47.71129057803813</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>81.54619494042197</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>109.6489225228995</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>127.9551207786668</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>120.1520068700076</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>96.43257830122204</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>64.4626248077258</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>31.35420961992052</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>9.380126994939479</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>2.035498632431968</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03322359030084825</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.423373839243596</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.764178316183975</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12.73200600198015</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>29.93253043452224</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>49.18834241393778</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>62.94414333627064</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>66.36577372797568</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>64.78774396352233</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>59.84196775054031</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>51.20514142997091</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.45178575702513</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.03642735362569</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>7.378251362090667</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.808960949495364</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02309311850419617</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-218750.5042824881</v>
+        <v>-104665.6458001496</v>
       </c>
     </row>
     <row r="7">
@@ -26334,7 +26334,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="I2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="J2" t="n">
         <v>37627.59193600625</v>
@@ -26346,16 +26346,16 @@
         <v>37627.59193600625</v>
       </c>
       <c r="M2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="N2" t="n">
         <v>37627.59193600625</v>
       </c>
       <c r="O2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="P2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700347</v>
       </c>
       <c r="C6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700347</v>
       </c>
       <c r="D6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700347</v>
       </c>
       <c r="E6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003469</v>
       </c>
       <c r="F6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003469</v>
       </c>
       <c r="G6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003469</v>
       </c>
       <c r="H6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003469</v>
       </c>
       <c r="I6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003469</v>
       </c>
       <c r="J6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003469</v>
       </c>
       <c r="K6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003469</v>
       </c>
       <c r="L6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003469</v>
       </c>
       <c r="M6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003469</v>
       </c>
       <c r="N6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003469</v>
       </c>
       <c r="O6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003469</v>
       </c>
       <c r="P6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003469</v>
       </c>
     </row>
   </sheetData>
